--- a/ig/r4-ig-starter/pr-3/main/FROM-ShahimEssaid/fhirware/main-b2/StructureDefinition-veterinarian.xlsx
+++ b/ig/r4-ig-starter/pr-3/main/FROM-ShahimEssaid/fhirware/main-b2/StructureDefinition-veterinarian.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T07:11:58+00:00</t>
+    <t>2022-05-26T07:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/r4-ig-starter/pr-3/main/FROM-ShahimEssaid/fhirware/main-b2/StructureDefinition-veterinarian.xlsx
+++ b/ig/r4-ig-starter/pr-3/main/FROM-ShahimEssaid/fhirware/main-b2/StructureDefinition-veterinarian.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T07:32:03+00:00</t>
+    <t>2022-05-26T07:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/r4-ig-starter/pr-3/main/FROM-ShahimEssaid/fhirware/main-b2/StructureDefinition-veterinarian.xlsx
+++ b/ig/r4-ig-starter/pr-3/main/FROM-ShahimEssaid/fhirware/main-b2/StructureDefinition-veterinarian.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T07:49:46+00:00</t>
+    <t>2022-05-26T08:13:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/r4-ig-starter/pr-3/main/FROM-ShahimEssaid/fhirware/main-b2/StructureDefinition-veterinarian.xlsx
+++ b/ig/r4-ig-starter/pr-3/main/FROM-ShahimEssaid/fhirware/main-b2/StructureDefinition-veterinarian.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T08:13:57+00:00</t>
+    <t>2022-05-26T08:35:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
